--- a/public/uploads/FormTest(V2).xlsx
+++ b/public/uploads/FormTest(V2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://psgpsg-my.sharepoint.com/personal/mcoulerot_psg_fr/Documents/Bureau/Personnel/000-MAJEEC Capital/02-VAI-Sports/01-Développement/02-Version Beta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kashi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1DF69D61-03B6-4A9F-BFA9-042ADF4DE239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3C1C033-94D1-4E72-BEF1-30086438F4AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F628D1-53FE-4E3A-9198-FCB8498792F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3658,19 +3658,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P571"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D571"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="106.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="106.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="F29" s="39"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="F30" s="39"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="F31" s="39"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="F32" s="39"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F33" s="39"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="F34" s="39"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="F35" s="39"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="F36" s="39"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="F37" s="39"/>
     </row>
-    <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="F38" s="39"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="F39" s="39"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="F40" s="39"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>28</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F41" s="39"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>28</v>
       </c>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="F42" s="39"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>28</v>
       </c>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="F43" s="39"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
@@ -4274,11 +4274,11 @@
         <v>63</v>
       </c>
       <c r="D44" s="39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F44" s="39"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="F45" s="39"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="F46" s="39"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>28</v>
       </c>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F47" s="39"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>28</v>
       </c>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="F48" s="39"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="F49" s="39"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="F50" s="39"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>28</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="F51" s="39"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>28</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="D52" s="39"/>
       <c r="F52" s="39"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>28</v>
       </c>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="F53" s="39"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="F54" s="39"/>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>28</v>
       </c>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="F55" s="39"/>
     </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>28</v>
       </c>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="F56" s="39"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>28</v>
       </c>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="F57" s="39"/>
     </row>
-    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>28</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="F58" s="39"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>28</v>
       </c>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="F59" s="39"/>
     </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>28</v>
       </c>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="F60" s="39"/>
     </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>28</v>
       </c>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="F61" s="39"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>28</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="F62" s="39"/>
     </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>28</v>
       </c>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="F63" s="39"/>
     </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>28</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="F64" s="39"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>28</v>
       </c>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="F65" s="39"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>28</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="F66" s="39"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>28</v>
       </c>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F67" s="39"/>
     </row>
-    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>28</v>
       </c>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="F68" s="39"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>28</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="F69" s="39"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>28</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F70" s="39"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="F71" s="39"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>28</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="F72" s="39"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>28</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="F73" s="39"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>28</v>
       </c>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="F74" s="39"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="F75" s="39"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>28</v>
       </c>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="F76" s="39"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>28</v>
       </c>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F77" s="39"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>28</v>
       </c>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="F78" s="39"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>28</v>
       </c>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="F79" s="39"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>28</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="F80" s="39"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>28</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="F81" s="39"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>28</v>
       </c>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="F82" s="39"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>28</v>
       </c>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="F83" s="39"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>28</v>
       </c>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="F84" s="39"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>28</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="F85" s="39"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>28</v>
       </c>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="F86" s="39"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>28</v>
       </c>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="F87" s="39"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>28</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="F88" s="39"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>28</v>
       </c>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="F89" s="39"/>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="F90" s="39"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>28</v>
       </c>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="F91" s="39"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>28</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="D92" s="36"/>
       <c r="F92" s="39"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>28</v>
       </c>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F93" s="39"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>28</v>
       </c>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="F94" s="39"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>28</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="D95" s="36"/>
       <c r="F95" s="39"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>28</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="D96" s="36"/>
       <c r="F96" s="39"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>28</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="D97" s="36"/>
       <c r="F97" s="39"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>28</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="D98" s="36"/>
       <c r="F98" s="39"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>28</v>
       </c>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="F99" s="39"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>28</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="D100" s="36"/>
       <c r="F100" s="39"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>28</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="D101" s="36"/>
       <c r="F101" s="39"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>28</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="D102" s="36"/>
       <c r="F102" s="39"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>28</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="D103" s="36"/>
       <c r="F103" s="39"/>
     </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>28</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="D104" s="36"/>
       <c r="F104" s="39"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>28</v>
       </c>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="F105" s="39"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>28</v>
       </c>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F106" s="39"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>28</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="F107" s="39"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>28</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="F108" s="39"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>28</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="F109" s="39"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>28</v>
       </c>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="F110" s="39"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>28</v>
       </c>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="F111" s="39"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>28</v>
       </c>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="F112" s="39"/>
     </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>28</v>
       </c>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="F113" s="39"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>28</v>
       </c>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="F114" s="39"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>28</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="D115" s="36"/>
       <c r="F115" s="39"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>28</v>
       </c>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="F116" s="39"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>28</v>
       </c>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="F117" s="39"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>28</v>
       </c>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="F118" s="39"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>28</v>
       </c>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="F119" s="39"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>28</v>
       </c>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="F120" s="39"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>28</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="F121" s="39"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="F122" s="39"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>28</v>
       </c>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F123" s="39"/>
     </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>28</v>
       </c>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="F124" s="39"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>28</v>
       </c>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="F125" s="39"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>28</v>
       </c>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="F126" s="39"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>28</v>
       </c>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="F127" s="39"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>28</v>
       </c>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="F128" s="39"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>28</v>
       </c>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="F129" s="39"/>
     </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>28</v>
       </c>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="F130" s="39"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>28</v>
       </c>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="F131" s="39"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>28</v>
       </c>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="F132" s="39"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>28</v>
       </c>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="F133" s="39"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>28</v>
       </c>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="F134" s="39"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>28</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="F135" s="39"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>28</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="F136" s="39"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>28</v>
       </c>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F137" s="39"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>28</v>
       </c>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F138" s="39"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>28</v>
       </c>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="F139" s="39"/>
     </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>28</v>
       </c>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="F140" s="39"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>28</v>
       </c>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F141" s="39"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>28</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="F142" s="39"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>28</v>
       </c>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="F143" s="39"/>
     </row>
-    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>28</v>
       </c>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="F144" s="39"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>28</v>
       </c>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="F145" s="39"/>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>28</v>
       </c>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="F146" s="39"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>28</v>
       </c>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="F147" s="39"/>
     </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>28</v>
       </c>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="F148" s="39"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>28</v>
       </c>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F149" s="39"/>
     </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>28</v>
       </c>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="F150" s="39"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>191</v>
       </c>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="F151" s="39"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>191</v>
       </c>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="F152" s="39"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>191</v>
       </c>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="F153" s="39"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>191</v>
       </c>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="F154" s="39"/>
     </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>191</v>
       </c>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="F155" s="39"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>198</v>
       </c>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="F156" s="39"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>198</v>
       </c>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="F157" s="39"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>198</v>
       </c>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="F158" s="39"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>198</v>
       </c>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="F159" s="39"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>198</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="F160" s="39"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>198</v>
       </c>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="F161" s="39"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>198</v>
       </c>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="F162" s="39"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
         <v>198</v>
       </c>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="F163" s="39"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
         <v>198</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
         <v>198</v>
       </c>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="F165" s="39"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
         <v>198</v>
       </c>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="F166" s="39"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
         <v>198</v>
       </c>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="F167" s="39"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>198</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="F168" s="39"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
         <v>198</v>
       </c>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="F169" s="39"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>198</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="F170" s="39"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>198</v>
       </c>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="F171" s="39"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>198</v>
       </c>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="F172" s="39"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>198</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="F173" s="39"/>
     </row>
-    <row r="174" spans="1:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>198</v>
       </c>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="F174" s="39"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>198</v>
       </c>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="F175" s="39"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>198</v>
       </c>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="F176" s="39"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>198</v>
       </c>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="F177" s="39"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>198</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="F178" s="39"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>198</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="F179" s="39"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>198</v>
       </c>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="F180" s="39"/>
     </row>
-    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>198</v>
       </c>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="F181" s="39"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>232</v>
       </c>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="F182" s="39"/>
     </row>
-    <row r="183" spans="1:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>235</v>
       </c>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F183" s="39"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>232</v>
       </c>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="F184" s="39"/>
     </row>
-    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>238</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="F185" s="39"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>238</v>
       </c>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="F186" s="39"/>
     </row>
-    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>238</v>
       </c>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="F187" s="39"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>238</v>
       </c>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F188" s="39"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>241</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="F189" s="39"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>241</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>241</v>
       </c>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="F191" s="39"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>241</v>
       </c>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="F192" s="39"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>246</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="F193" s="39"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>246</v>
       </c>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="F194" s="39"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>249</v>
       </c>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="F195" s="39"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>249</v>
       </c>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F196" s="39"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>241</v>
       </c>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="F197" s="39"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>241</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="F198" s="39"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>249</v>
       </c>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="F199" s="39"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>249</v>
       </c>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="F200" s="39"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>246</v>
       </c>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="F201" s="39"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>246</v>
       </c>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="F202" s="39"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>258</v>
       </c>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="F203" s="39"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>258</v>
       </c>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="F204" s="39"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>246</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="F205" s="39"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>246</v>
       </c>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F206" s="39"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>241</v>
       </c>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="F207" s="39"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>241</v>
       </c>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="F208" s="39"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>265</v>
       </c>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="F209" s="39"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
         <v>265</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F210" s="39"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>238</v>
       </c>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="F211" s="39"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>238</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>238</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>238</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>241</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>241</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>241</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>241</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>246</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>246</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>249</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>249</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>241</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>241</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>249</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>249</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
         <v>246</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
         <v>246</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
         <v>258</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
         <v>258</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
         <v>246</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
         <v>246</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>241</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>241</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
         <v>265</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
         <v>265</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>238</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>238</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>238</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>241</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>241</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>241</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>241</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>246</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>246</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>249</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>241</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>241</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>249</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="28" t="s">
         <v>246</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="28" t="s">
         <v>246</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>258</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>258</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>246</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>246</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>241</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>241</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>265</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>265</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>238</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>238</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>238</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>238</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>241</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>241</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>241</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>241</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>246</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>246</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>249</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>249</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>326</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
         <v>328</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
         <v>328</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
         <v>328</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
         <v>328</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
         <v>334</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
         <v>334</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
         <v>338</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
         <v>338</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
         <v>341</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
         <v>341</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
         <v>338</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
         <v>338</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
         <v>334</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
         <v>334</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
         <v>334</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
         <v>334</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
         <v>334</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
         <v>334</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
         <v>334</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="s">
         <v>334</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
         <v>334</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
         <v>356</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
         <v>356</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
         <v>358</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
         <v>360</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
         <v>362</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
         <v>362</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
         <v>362</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
         <v>362</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
         <v>362</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
         <v>362</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
         <v>362</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
         <v>362</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
         <v>362</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
         <v>362</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
         <v>362</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
         <v>362</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
         <v>362</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
         <v>362</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
         <v>362</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
         <v>362</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
         <v>362</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
         <v>362</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
         <v>362</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
         <v>362</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
         <v>362</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
         <v>362</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
         <v>362</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
         <v>362</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
         <v>362</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
         <v>362</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
         <v>362</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
         <v>362</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
         <v>362</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
         <v>362</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
         <v>362</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
         <v>362</v>
       </c>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="F332" s="40"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="14" t="s">
         <v>362</v>
       </c>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="F333" s="40"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="s">
         <v>362</v>
       </c>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="F334" s="40"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
         <v>362</v>
       </c>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="F335" s="40"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
         <v>362</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
         <v>362</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
         <v>362</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="s">
         <v>362</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
         <v>362</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="14" t="s">
         <v>362</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="14" t="s">
         <v>362</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
         <v>362</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="14" t="s">
         <v>362</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="s">
         <v>362</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="14" t="s">
         <v>362</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
         <v>362</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
         <v>410</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
         <v>410</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
         <v>410</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
         <v>410</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
         <v>410</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
         <v>410</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
         <v>362</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="s">
         <v>362</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
         <v>362</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
         <v>362</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="s">
         <v>421</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
         <v>421</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="14" t="s">
         <v>421</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
         <v>421</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
         <v>334</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
         <v>334</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
         <v>334</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
         <v>334</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
         <v>334</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
         <v>334</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="s">
         <v>334</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
         <v>334</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
         <v>421</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
         <v>421</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
         <v>421</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
         <v>421</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
         <v>421</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
         <v>421</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
         <v>421</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
         <v>421</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
         <v>421</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
         <v>421</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
         <v>421</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
         <v>421</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
         <v>446</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
         <v>446</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
         <v>446</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
         <v>446</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
         <v>446</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
         <v>446</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
         <v>446</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
         <v>446</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
         <v>446</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
         <v>446</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
         <v>446</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
         <v>446</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="14" t="s">
         <v>446</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
         <v>446</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
         <v>446</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
         <v>362</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
         <v>362</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="s">
         <v>362</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="s">
         <v>362</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="14" t="s">
         <v>362</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="14" t="s">
         <v>362</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="14" t="s">
         <v>362</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="14" t="s">
         <v>362</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="s">
         <v>362</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="14" t="s">
         <v>362</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
         <v>362</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
         <v>362</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="14" t="s">
         <v>362</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
         <v>362</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
         <v>476</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
         <v>338</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
         <v>338</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
         <v>338</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="14" t="s">
         <v>338</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
         <v>341</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="14" t="s">
         <v>341</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="14" t="s">
         <v>341</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
         <v>341</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="14" t="s">
         <v>341</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="s">
         <v>341</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="s">
         <v>341</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
         <v>341</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
         <v>341</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
         <v>341</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
         <v>334</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
         <v>334</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
         <v>334</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="14" t="s">
         <v>334</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="s">
         <v>334</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
         <v>334</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
         <v>334</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
         <v>334</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
         <v>334</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="s">
         <v>334</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
         <v>334</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
         <v>334</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
         <v>334</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="14" t="s">
         <v>334</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
         <v>334</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
         <v>334</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
         <v>506</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
         <v>506</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
         <v>506</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
         <v>506</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
         <v>509</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="14" t="s">
         <v>509</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="s">
         <v>476</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="14" t="s">
         <v>476</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
         <v>476</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
         <v>476</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
         <v>476</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
         <v>476</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
         <v>476</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="14" t="s">
         <v>476</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="14" t="s">
         <v>476</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
         <v>476</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
         <v>476</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
         <v>476</v>
       </c>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="F459" s="40"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
         <v>526</v>
       </c>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="F460" s="40"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="14" t="s">
         <v>526</v>
       </c>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="F461" s="40"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="14" t="s">
         <v>526</v>
       </c>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="F462" s="40"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="14" t="s">
         <v>526</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="14" t="s">
         <v>526</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="14" t="s">
         <v>362</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="14" t="s">
         <v>362</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="14" t="s">
         <v>362</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="14" t="s">
         <v>362</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="s">
         <v>362</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
         <v>362</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="14" t="s">
         <v>362</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
         <v>362</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
         <v>362</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
         <v>362</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
         <v>362</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
         <v>362</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="14" t="s">
         <v>362</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="s">
         <v>362</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="14" t="s">
         <v>362</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="s">
         <v>362</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
         <v>362</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="14" t="s">
         <v>362</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
         <v>362</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
         <v>362</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
         <v>362</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
         <v>362</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
         <v>362</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
         <v>362</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
         <v>362</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
         <v>362</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
         <v>362</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="14" t="s">
         <v>362</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
         <v>362</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
         <v>362</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
         <v>362</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
         <v>362</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
         <v>362</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
         <v>362</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
         <v>362</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
         <v>362</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
         <v>362</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="14" t="s">
         <v>362</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="s">
         <v>362</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
         <v>362</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
         <v>362</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
         <v>362</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
         <v>362</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="14" t="s">
         <v>362</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="28" t="s">
         <v>576</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="28" t="s">
         <v>576</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="28" t="s">
         <v>576</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="28" t="s">
         <v>576</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="28" t="s">
         <v>576</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="28" t="s">
         <v>576</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="28" t="s">
         <v>576</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="28" t="s">
         <v>576</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="28" t="s">
         <v>576</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="28" t="s">
         <v>576</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="28" t="s">
         <v>576</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="28" t="s">
         <v>576</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="28" t="s">
         <v>576</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="28" t="s">
         <v>576</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="28" t="s">
         <v>576</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="28" t="s">
         <v>576</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="28" t="s">
         <v>576</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="28" t="s">
         <v>576</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="28" t="s">
         <v>576</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="28" t="s">
         <v>576</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="28" t="s">
         <v>576</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="28" t="s">
         <v>576</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="28" t="s">
         <v>576</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="28" t="s">
         <v>576</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="28" t="s">
         <v>576</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="28" t="s">
         <v>576</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="28" t="s">
         <v>576</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>589.5</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="28" t="s">
         <v>576</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="28" t="s">
         <v>576</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="28" t="s">
         <v>576</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="28" t="s">
         <v>576</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="28" t="s">
         <v>576</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="28" t="s">
         <v>576</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="28" t="s">
         <v>576</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="28" t="s">
         <v>576</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="28" t="s">
         <v>576</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="28" t="s">
         <v>576</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="28" t="s">
         <v>576</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="28" t="s">
         <v>619</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="28" t="s">
         <v>619</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="28" t="s">
         <v>619</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="28" t="s">
         <v>619</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="28" t="s">
         <v>619</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="28" t="s">
         <v>619</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="28" t="s">
         <v>619</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="28" t="s">
         <v>619</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="28" t="s">
         <v>619</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="28" t="s">
         <v>619</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="28" t="s">
         <v>619</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="28" t="s">
         <v>619</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="28" t="s">
         <v>619</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="28" t="s">
         <v>619</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A561" s="28" t="s">
         <v>619</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="28" t="s">
         <v>619</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="28" t="s">
         <v>619</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="28" t="s">
         <v>619</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="28" t="s">
         <v>619</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="28" t="s">
         <v>619</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="28" t="s">
         <v>619</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="28" t="s">
         <v>619</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="28" t="s">
         <v>619</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="28" t="s">
         <v>619</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="32" t="s">
         <v>619</v>
       </c>
